--- a/ONCHO/Impact Assessments/DRC/cd_oncho_2 participants_202211.xlsx
+++ b/ONCHO/Impact Assessments/DRC/cd_oncho_2 participants_202211.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -48,12 +48,12 @@
     <t>required</t>
   </si>
   <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
     <t>read_only</t>
   </si>
   <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -129,22 +129,22 @@
     <t>${p_Consent} = 'Oui'</t>
   </si>
   <si>
-    <t>barcode</t>
+    <t>p_num_ordre</t>
+  </si>
+  <si>
+    <t>Veuillez entrer le numéro d'ordre du participant:</t>
   </si>
   <si>
     <t>p_code_id</t>
   </si>
   <si>
-    <t>Scanner l’identification (Identifiant) du Participant</t>
-  </si>
-  <si>
-    <t>regex(., '^SA [0-9]{5} [0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>Le format du QR code est incorrect. Ex s'un format correct : SA 00001 22</t>
+    <t>Sélectionnez le code d'identification unique du participant</t>
   </si>
   <si>
     <t>${p_Consent} = 'Oui' and ${p_live_to_village} = 'Oui'</t>
+  </si>
+  <si>
+    <t>concat(${p_cluster_id},'-',if(${p_num_ordre}  &lt; 10, concat('00',${p_num_ordre}), if(${p_num_ordre} &gt;=10 and ${p_num_ordre} &lt;100, concat('0', ${p_num_ordre}), ${p_num_ordre})))</t>
   </si>
   <si>
     <t>select_one sex</t>
@@ -341,10 +341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -389,6 +389,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,10 +411,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +435,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -426,6 +472,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -433,112 +539,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -561,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,16 +786,25 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.349986266670736"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,6 +854,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -862,35 +891,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -900,152 +900,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1097,6 +1097,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1115,8 +1124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1444,14 +1456,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1466,8 +1478,7 @@
     <col min="8" max="8" width="21.5037037037037" customWidth="1"/>
     <col min="9" max="9" width="21.3777777777778" customWidth="1"/>
     <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
-    <col min="11" max="11" width="13.8740740740741" customWidth="1"/>
-    <col min="12" max="12" width="36.6222222222222" customWidth="1"/>
+    <col min="11" max="11" width="36.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:12">
@@ -1504,11 +1515,11 @@
       <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="28.5" spans="1:12">
+    <row r="2" s="3" customFormat="1" ht="28.5" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -1534,9 +1545,8 @@
         <v>18</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:14">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:13">
       <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
@@ -1548,18 +1558,18 @@
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:14">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
@@ -1571,18 +1581,18 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:14">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
@@ -1594,18 +1604,18 @@
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:14">
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
@@ -1617,18 +1627,18 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:13">
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +1648,6 @@
       <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1647,21 +1656,20 @@
       <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="5:15">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="5:14">
       <c r="E8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:12">
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:11">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -1674,18 +1682,17 @@
       <c r="D9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="16"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:12">
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:11">
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1705,206 +1712,203 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A11" s="11" t="s">
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:12">
+      <c r="A11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:12">
+      <c r="A12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="C12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:12">
+      <c r="K12" s="25"/>
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:11">
       <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" s="13" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" s="3" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" s="13" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" s="13" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="H15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" s="13" customFormat="1" ht="42.75" spans="1:12">
-      <c r="A16" s="8" t="s">
-        <v>56</v>
+    </row>
+    <row r="16" s="13" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="16"/>
       <c r="H16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" s="13" customFormat="1" ht="42.75" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:11">
+      <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="21" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1915,7 +1919,23 @@
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
